--- a/2019_CDC_OpenHoover.xlsx
+++ b/2019_CDC_OpenHoover.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75EB8575-BAB1-4585-BFB6-A5DB4E851EBB}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E05B67D2-083D-4610-AFC0-099E012D468C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="32">
   <si>
     <t>Nom</t>
   </si>
@@ -52,30 +52,9 @@
     <t>Partie 3: Boitier</t>
   </si>
   <si>
-    <t>Choix de composants adaptés aux différentes fonctionnalités.</t>
-  </si>
-  <si>
-    <t>Plan détaillé de construction de la structure en 3D</t>
-  </si>
-  <si>
-    <t>6 jours/H</t>
-  </si>
-  <si>
-    <t>7 jours/H</t>
-  </si>
-  <si>
-    <t>Création d’un protocole de communication permettant l’échange entre le boitier de contrôle et l’aspirateur</t>
-  </si>
-  <si>
-    <t>5 jours/H</t>
-  </si>
-  <si>
     <t>Partie 4: Assemblage</t>
   </si>
   <si>
-    <t>Assemblage des différentes composantes du boitier et de l'aspirateur</t>
-  </si>
-  <si>
     <t>1 jour/H</t>
   </si>
   <si>
@@ -91,16 +70,52 @@
     <t>Partie 6: Mapping</t>
   </si>
   <si>
-    <t>Algorithme de mapping de l’environnement et optimisation de la donnée de structure pour un stockage optimale et léger de ces informations</t>
-  </si>
-  <si>
     <t>Partie 7: Navigation</t>
   </si>
   <si>
-    <t>9 jours/H</t>
-  </si>
-  <si>
-    <t>Algorithme de recherche de trajet dans l’environnement mappé précédemment</t>
+    <t xml:space="preserve">Choix de composants adaptés aux différentes fonctionnalités (Quel Senseur ? Quel Moteur(s) ? Quel carte Arduino ? Quel Batterie ? ...) </t>
+  </si>
+  <si>
+    <t>Conception/Esquisse (dessin, réflexion) permettant un agencement au mieux des différents composants</t>
+  </si>
+  <si>
+    <t>3 jours/H</t>
+  </si>
+  <si>
+    <t>2 jours/H</t>
+  </si>
+  <si>
+    <t>Réalisation du modèle 3D via un logiciel de conception</t>
+  </si>
+  <si>
+    <t>Prototypage (En matériaux de récupération et/ou Impression 3D si possible)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comparaison des différents composants sélectionnés (Consommation électrique, Complexité d’utilisation, Fiabilité, Coût, Limite, ...) </t>
+  </si>
+  <si>
+    <t>Idéalisation et création du protocole de communication Boiter/Aspirateur (Quel Protocole Réseau ? Quelles commandes disponibles ?)</t>
+  </si>
+  <si>
+    <t>Implémentation du protocole et Test en Simulation</t>
+  </si>
+  <si>
+    <t>Assemblage des différentes composantes du boitier et de l'aspirateur et Test avancé en condition réel</t>
+  </si>
+  <si>
+    <t>Choix du type de donnée en fonction des senseurs (Image, Distance, …) de caractérisation de celle-ci.</t>
+  </si>
+  <si>
+    <t>Mise en œuvre de l’algorithme et test en simulation ainsi que test de sauvegarde/chargement en condition réel sur l’aspirateur</t>
+  </si>
+  <si>
+    <t>Réalisation d’un Algorithme de « Path Finding » global, pour le trajet principal de l’aspirateur couvrant la plus grande zone possible</t>
+  </si>
+  <si>
+    <t>Choix d’un type de structure de donnée optimisé (Arbre, Liste, …) pour la mise en œuvre d'un « PathFinding » optimal</t>
+  </si>
+  <si>
+    <t>Test et gestion des cas particuliers tel que les plaintes, meubles, obstacles, ou même le cas d’objets externe mobiles dans l’environnement.</t>
   </si>
 </sst>
 </file>
@@ -179,7 +194,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
@@ -190,14 +205,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -478,10 +491,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -513,127 +526,242 @@
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="4" t="s">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="D9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="4" t="s">
+      <c r="D10" s="4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="5" t="s">
+      <c r="E10" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="6" t="s">
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="4" t="s">
+      <c r="D11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
+      <c r="D14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15" t="s">
+        <v>14</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
